--- a/RT4/export_excel/profils.xlsx
+++ b/RT4/export_excel/profils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LEXAR/Fiches_DQ/RT/RT4/export_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08499C71-8FBC-7A48-80AD-28A69AE0635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D29F59-4B4B-614D-BFB4-D01741D0D5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="3" xr2:uid="{6567EACF-C6A6-244B-9A4A-E489798AB033}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="11" activeTab="14" xr2:uid="{6567EACF-C6A6-244B-9A4A-E489798AB033}"/>
   </bookViews>
   <sheets>
     <sheet name="IN_06MeV_10_DSP100_CC13" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="CR_09MeV_10_DSP100_CC13_rap" sheetId="13" r:id="rId12"/>
     <sheet name="CR_09MeV_10_DSP105_CC13" sheetId="14" r:id="rId13"/>
     <sheet name="CR_09MeV_10_DSP110_CC13" sheetId="15" r:id="rId14"/>
-    <sheet name="CR_09MeV_6_DSP100_CC13" sheetId="16" r:id="rId15"/>
+    <sheet name="CR_09MeV_06_DSP100_CC13" sheetId="16" r:id="rId15"/>
     <sheet name="CR_09MeV_15_DSP100_CC13" sheetId="17" r:id="rId16"/>
     <sheet name="CR_09MeV_20_DSP100_CC13" sheetId="18" r:id="rId17"/>
     <sheet name="IN_09MeV_10_DSP100_ROOS" sheetId="19" r:id="rId18"/>
@@ -14389,7 +14389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAC9518-5A57-0C4C-8DC9-4998740D8C3C}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B254"/>
     </sheetView>
   </sheetViews>
@@ -31606,7 +31606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AEE371-FB0D-2E41-B337-E2AFD5E0FC65}">
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/RT4/export_excel/profils.xlsx
+++ b/RT4/export_excel/profils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LEXAR/Fiches_DQ/RT/RT4/export_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D29F59-4B4B-614D-BFB4-D01741D0D5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1417E-6A57-8D4F-9519-F1AC62160700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="11" activeTab="14" xr2:uid="{6567EACF-C6A6-244B-9A4A-E489798AB033}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" firstSheet="13" activeTab="18" xr2:uid="{6567EACF-C6A6-244B-9A4A-E489798AB033}"/>
   </bookViews>
   <sheets>
     <sheet name="IN_06MeV_10_DSP100_CC13" sheetId="10" r:id="rId1"/>
@@ -14389,7 +14389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAC9518-5A57-0C4C-8DC9-4998740D8C3C}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B254"/>
     </sheetView>
   </sheetViews>
@@ -22416,10 +22416,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC134554-54BE-EA45-A936-7C5F1BA691CE}">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B284"/>
+      <selection sqref="A1:B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22434,2266 +22434,2282 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-170</v>
+        <v>171.5</v>
       </c>
       <c r="B2">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-169.1</v>
+        <v>170.5</v>
       </c>
       <c r="B3">
-        <v>1.07</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-167.6</v>
+        <v>168.8</v>
       </c>
       <c r="B4">
-        <v>1.0900000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-166.5</v>
+        <v>167.7</v>
       </c>
       <c r="B5">
-        <v>1.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-165.3</v>
+        <v>166.6</v>
       </c>
       <c r="B6">
-        <v>1.0900000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-164.1</v>
+        <v>165.5</v>
       </c>
       <c r="B7">
-        <v>1.1399999999999999</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-162.9</v>
+        <v>164.2</v>
       </c>
       <c r="B8">
-        <v>1.0900000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-161.69999999999999</v>
+        <v>163</v>
       </c>
       <c r="B9">
-        <v>1.1100000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-160.5</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-159.30000000000001</v>
+        <v>160.6</v>
       </c>
       <c r="B11">
-        <v>1.1200000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-158.1</v>
+        <v>159.4</v>
       </c>
       <c r="B12">
-        <v>1.1200000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-156.9</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="B13">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-155.69999999999999</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-154.5</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B15">
-        <v>1.1299999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-153.30000000000001</v>
+        <v>154.5</v>
       </c>
       <c r="B16">
-        <v>1.1200000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-152.1</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="B17">
-        <v>1.1299999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-150.9</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="B18">
-        <v>1.1100000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-149.69999999999999</v>
+        <v>150.9</v>
       </c>
       <c r="B19">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-148.5</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="B20">
-        <v>1.1200000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-147.30000000000001</v>
+        <v>148.5</v>
       </c>
       <c r="B21">
-        <v>1.1399999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-146.1</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="B22">
-        <v>1.1299999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-144.80000000000001</v>
+        <v>146.1</v>
       </c>
       <c r="B23">
-        <v>1.1100000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-143.6</v>
+        <v>144.9</v>
       </c>
       <c r="B24">
-        <v>1.1000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-142.5</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="B25">
-        <v>1.1200000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-141.19999999999999</v>
+        <v>142.5</v>
       </c>
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-140</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="B27">
-        <v>1.1200000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-138.80000000000001</v>
+        <v>140.1</v>
       </c>
       <c r="B28">
-        <v>1.1299999999999999</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-137.6</v>
+        <v>138.9</v>
       </c>
       <c r="B29">
-        <v>1.1200000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-136.4</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-135.19999999999999</v>
+        <v>136.5</v>
       </c>
       <c r="B31">
-        <v>1.1200000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-134</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="B32">
-        <v>1.1200000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-132.80000000000001</v>
+        <v>134.1</v>
       </c>
       <c r="B33">
-        <v>1.1100000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-131.6</v>
+        <v>132.9</v>
       </c>
       <c r="B34">
-        <v>1.1100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-130.4</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="B35">
-        <v>1.1299999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-129.19999999999999</v>
+        <v>130.5</v>
       </c>
       <c r="B36">
-        <v>1.1000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-128</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="B37">
-        <v>1.1100000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-126.8</v>
+        <v>128.1</v>
       </c>
       <c r="B38">
-        <v>1.1000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-125.6</v>
+        <v>126.8</v>
       </c>
       <c r="B39">
-        <v>1.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-124.4</v>
+        <v>125.7</v>
       </c>
       <c r="B40">
-        <v>1.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-123.2</v>
+        <v>124.5</v>
       </c>
       <c r="B41">
-        <v>1.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-122</v>
+        <v>123.2</v>
       </c>
       <c r="B42">
-        <v>1.06</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-120.8</v>
+        <v>122</v>
       </c>
       <c r="B43">
-        <v>1.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-119.6</v>
+        <v>120.8</v>
       </c>
       <c r="B44">
-        <v>1.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-118.4</v>
+        <v>119.6</v>
       </c>
       <c r="B45">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-117.2</v>
+        <v>118.4</v>
       </c>
       <c r="B46">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-116</v>
+        <v>117.2</v>
       </c>
       <c r="B47">
-        <v>0.99</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-114.8</v>
+        <v>116</v>
       </c>
       <c r="B48">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-113.6</v>
+        <v>114.8</v>
       </c>
       <c r="B49">
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>-112.4</v>
+        <v>113.6</v>
       </c>
       <c r="B50">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-111.2</v>
+        <v>112.4</v>
       </c>
       <c r="B51">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-110</v>
+        <v>111.2</v>
       </c>
       <c r="B52">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-108.8</v>
+        <v>110</v>
       </c>
       <c r="B53">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-107.6</v>
+        <v>108.7</v>
       </c>
       <c r="B54">
-        <v>0.98</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-106.4</v>
+        <v>107.6</v>
       </c>
       <c r="B55">
-        <v>0.97</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-105.1</v>
+        <v>106.3</v>
       </c>
       <c r="B56">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-104</v>
+        <v>105.1</v>
       </c>
       <c r="B57">
-        <v>1.01</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-102.7</v>
+        <v>103.9</v>
       </c>
       <c r="B58">
-        <v>1.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-101.5</v>
+        <v>102.7</v>
       </c>
       <c r="B59">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-100.3</v>
+        <v>101.5</v>
       </c>
       <c r="B60">
-        <v>1.02</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-99.1</v>
+        <v>100.3</v>
       </c>
       <c r="B61">
-        <v>1.03</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-98</v>
+        <v>99.1</v>
       </c>
       <c r="B62">
-        <v>1.04</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-96.7</v>
+        <v>97.9</v>
       </c>
       <c r="B63">
-        <v>1.06</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-95.5</v>
+        <v>96.7</v>
       </c>
       <c r="B64">
-        <v>1.08</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-94.3</v>
+        <v>95.5</v>
       </c>
       <c r="B65">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-93.1</v>
+        <v>94.3</v>
       </c>
       <c r="B66">
-        <v>1.0900000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-91.9</v>
+        <v>93.1</v>
       </c>
       <c r="B67">
-        <v>1.1499999999999999</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-90.7</v>
+        <v>91.9</v>
       </c>
       <c r="B68">
-        <v>1.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-89.5</v>
+        <v>90.7</v>
       </c>
       <c r="B69">
-        <v>1.1599999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-88.3</v>
+        <v>89.5</v>
       </c>
       <c r="B70">
-        <v>1.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-87.1</v>
+        <v>88.2</v>
       </c>
       <c r="B71">
-        <v>1.24</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-85.9</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-84.7</v>
+        <v>85.8</v>
       </c>
       <c r="B73">
-        <v>1.33</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-83.5</v>
+        <v>84.6</v>
       </c>
       <c r="B74">
-        <v>1.36</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-82.3</v>
+        <v>83.4</v>
       </c>
       <c r="B75">
-        <v>1.44</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-81</v>
+        <v>82.2</v>
       </c>
       <c r="B76">
-        <v>1.48</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-79.900000000000006</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-78.599999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="B78">
-        <v>1.62</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-77.5</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="B79">
-        <v>1.72</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-76.2</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="B80">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-75</v>
+        <v>76.2</v>
       </c>
       <c r="B81">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-73.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="B82">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>-72.599999999999994</v>
+        <v>73.8</v>
       </c>
       <c r="B83">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>-71.400000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="B84">
-        <v>2.2000000000000002</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>-70.2</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="B85">
-        <v>2.27</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>-69</v>
+        <v>70.2</v>
       </c>
       <c r="B86">
-        <v>2.48</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>-67.8</v>
+        <v>69</v>
       </c>
       <c r="B87">
-        <v>2.65</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>-66.599999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="B88">
-        <v>2.86</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>-65.400000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="B89">
-        <v>3.17</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>-64.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="B90">
-        <v>3.65</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>-63</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="B91">
-        <v>4.3499999999999996</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>-61.8</v>
+        <v>63</v>
       </c>
       <c r="B92">
-        <v>5.46</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>-60.6</v>
+        <v>61.7</v>
       </c>
       <c r="B93">
-        <v>7.39</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>-59.4</v>
+        <v>60.5</v>
       </c>
       <c r="B94">
-        <v>10.38</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>-58.2</v>
+        <v>59.3</v>
       </c>
       <c r="B95">
-        <v>14.86</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>-56.9</v>
+        <v>58.1</v>
       </c>
       <c r="B96">
-        <v>20.74</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>-55.8</v>
+        <v>56.9</v>
       </c>
       <c r="B97">
-        <v>27.46</v>
+        <v>26.57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>-54.5</v>
+        <v>55.7</v>
       </c>
       <c r="B98">
-        <v>35.29</v>
+        <v>31.19</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>-53.3</v>
+        <v>54.5</v>
       </c>
       <c r="B99">
-        <v>43.13</v>
+        <v>36.130000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>-52.1</v>
+        <v>53.3</v>
       </c>
       <c r="B100">
-        <v>51.59</v>
+        <v>41.15</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>-50.9</v>
+        <v>52</v>
       </c>
       <c r="B101">
-        <v>60.01</v>
+        <v>46.63</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>-49.7</v>
+        <v>50.9</v>
       </c>
       <c r="B102">
-        <v>67.709999999999994</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>-48.5</v>
+        <v>49.7</v>
       </c>
       <c r="B103">
-        <v>75.69</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>-47.3</v>
+        <v>48.4</v>
       </c>
       <c r="B104">
-        <v>82</v>
+        <v>63.03</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>-46.1</v>
+        <v>47.2</v>
       </c>
       <c r="B105">
-        <v>87.8</v>
+        <v>68.010000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>-44.9</v>
+        <v>46</v>
       </c>
       <c r="B106">
-        <v>92.09</v>
+        <v>72.63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>-43.7</v>
+        <v>44.8</v>
       </c>
       <c r="B107">
-        <v>94.67</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>-42.5</v>
+        <v>43.6</v>
       </c>
       <c r="B108">
-        <v>96.6</v>
+        <v>81.02</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>-41.3</v>
+        <v>42.4</v>
       </c>
       <c r="B109">
-        <v>97.43</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>-40.1</v>
+        <v>41.2</v>
       </c>
       <c r="B110">
-        <v>97.93</v>
+        <v>86.99</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>-38.9</v>
+        <v>40</v>
       </c>
       <c r="B111">
-        <v>98.31</v>
+        <v>89.18</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>-37.700000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="B112">
-        <v>98.6</v>
+        <v>91.44</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>-36.5</v>
+        <v>37.6</v>
       </c>
       <c r="B113">
-        <v>98.82</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>-35.299999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="B114">
-        <v>98.96</v>
+        <v>94.56</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>-34.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="B115">
-        <v>98.87</v>
+        <v>95.02</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>-32.9</v>
+        <v>34</v>
       </c>
       <c r="B116">
-        <v>99.02</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>-31.7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="B117">
-        <v>99.37</v>
+        <v>97.22</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>-30.5</v>
+        <v>31.6</v>
       </c>
       <c r="B118">
-        <v>99.11</v>
+        <v>97.76</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>-29.3</v>
+        <v>30.4</v>
       </c>
       <c r="B119">
-        <v>99.37</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>-28.1</v>
+        <v>29.1</v>
       </c>
       <c r="B120">
-        <v>99.28</v>
+        <v>98.39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>-26.8</v>
+        <v>27.9</v>
       </c>
       <c r="B121">
-        <v>99.22</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>-25.7</v>
+        <v>26.8</v>
       </c>
       <c r="B122">
-        <v>99.46</v>
+        <v>99.14</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>-24.5</v>
+        <v>25.5</v>
       </c>
       <c r="B123">
-        <v>99.62</v>
+        <v>99.61</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>-23.2</v>
+        <v>24.3</v>
       </c>
       <c r="B124">
-        <v>99.57</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>-22.1</v>
+        <v>23.1</v>
       </c>
       <c r="B125">
-        <v>99.67</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>-20.8</v>
+        <v>21.9</v>
       </c>
       <c r="B126">
-        <v>99.44</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>-19.600000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="B127">
-        <v>99.55</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>-18.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="B128">
-        <v>99.84</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>-17.2</v>
+        <v>18.3</v>
       </c>
       <c r="B129">
-        <v>99.39</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>-16</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B130">
-        <v>99.62</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>-14.8</v>
+        <v>15.9</v>
       </c>
       <c r="B131">
-        <v>99.6</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>-13.6</v>
+        <v>14.7</v>
       </c>
       <c r="B132">
-        <v>99.58</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>-12.4</v>
+        <v>13.5</v>
       </c>
       <c r="B133">
-        <v>99.85</v>
+        <v>100.27</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>-11.2</v>
+        <v>12.3</v>
       </c>
       <c r="B134">
-        <v>99.71</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>-10</v>
+        <v>11.1</v>
       </c>
       <c r="B135">
-        <v>99.76</v>
+        <v>100.27</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>-8.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="B136">
-        <v>99.93</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>-7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B137">
-        <v>99.67</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>-6.4</v>
+        <v>7.4</v>
       </c>
       <c r="B138">
-        <v>99.8</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>-5.2</v>
+        <v>6.3</v>
       </c>
       <c r="B139">
-        <v>99.76</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>-4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B140">
-        <v>99.69</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>-2.8</v>
+        <v>3.8</v>
       </c>
       <c r="B141">
-        <v>99.92</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>-1.6</v>
+        <v>2.6</v>
       </c>
       <c r="B142">
-        <v>99.81</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B143">
-        <v>99.99</v>
+        <v>99.96</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B144">
-        <v>100.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B145">
-        <v>99.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>3.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="B146">
-        <v>99.94</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>4.4000000000000004</v>
+        <v>-3.4</v>
       </c>
       <c r="B147">
-        <v>100.08</v>
+        <v>99.82</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>5.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="B148">
-        <v>99.93</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>6.8</v>
+        <v>-5.8</v>
       </c>
       <c r="B149">
-        <v>99.61</v>
+        <v>100.24</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="B150">
-        <v>100.09</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>9.1999999999999993</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="B151">
-        <v>100.1</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>10.4</v>
+        <v>-9.4</v>
       </c>
       <c r="B152">
-        <v>100.1</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>11.7</v>
+        <v>-10.6</v>
       </c>
       <c r="B153">
-        <v>100.06</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>12.8</v>
+        <v>-11.8</v>
       </c>
       <c r="B154">
-        <v>99.99</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>14.1</v>
+        <v>-13</v>
       </c>
       <c r="B155">
-        <v>99.98</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>15.3</v>
+        <v>-14.2</v>
       </c>
       <c r="B156">
-        <v>100.06</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>16.399999999999999</v>
+        <v>-15.4</v>
       </c>
       <c r="B157">
-        <v>100.27</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>17.7</v>
+        <v>-16.7</v>
       </c>
       <c r="B158">
-        <v>100.3</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>18.8</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="B159">
-        <v>100.27</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>20.100000000000001</v>
+        <v>-19</v>
       </c>
       <c r="B160">
-        <v>100.11</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>21.3</v>
+        <v>-20.3</v>
       </c>
       <c r="B161">
-        <v>100.34</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>22.5</v>
+        <v>-21.5</v>
       </c>
       <c r="B162">
-        <v>100.36</v>
+        <v>99.69</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>23.7</v>
+        <v>-22.7</v>
       </c>
       <c r="B163">
-        <v>100.54</v>
+        <v>99.67</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>24.9</v>
+        <v>-23.9</v>
       </c>
       <c r="B164">
-        <v>100.49</v>
+        <v>99.36</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>26.1</v>
+        <v>-25.1</v>
       </c>
       <c r="B165">
-        <v>100.44</v>
+        <v>99.06</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>27.3</v>
+        <v>-26.3</v>
       </c>
       <c r="B166">
-        <v>100.41</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>28.5</v>
+        <v>-27.5</v>
       </c>
       <c r="B167">
-        <v>100.33</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>29.7</v>
+        <v>-28.7</v>
       </c>
       <c r="B168">
-        <v>100.4</v>
+        <v>98.68</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>30.9</v>
+        <v>-29.9</v>
       </c>
       <c r="B169">
-        <v>100.38</v>
+        <v>98.33</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>32.1</v>
+        <v>-31.1</v>
       </c>
       <c r="B170">
-        <v>100.35</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>33.299999999999997</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="B171">
-        <v>100.17</v>
+        <v>97.56</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>34.5</v>
+        <v>-33.5</v>
       </c>
       <c r="B172">
-        <v>100.12</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>35.700000000000003</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="B173">
-        <v>99.9</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>36.9</v>
+        <v>-36</v>
       </c>
       <c r="B174">
-        <v>99.15</v>
+        <v>95.23</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>38.1</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="B175">
-        <v>98.7</v>
+        <v>94.34</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>39.299999999999997</v>
+        <v>-38.4</v>
       </c>
       <c r="B176">
-        <v>97.19</v>
+        <v>92.94</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>40.5</v>
+        <v>-39.6</v>
       </c>
       <c r="B177">
-        <v>95.34</v>
+        <v>91.49</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>41.7</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="B178">
-        <v>91.8</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>42.9</v>
+        <v>-42</v>
       </c>
       <c r="B179">
-        <v>87.19</v>
+        <v>87.29</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>44.2</v>
+        <v>-43.2</v>
       </c>
       <c r="B180">
-        <v>81.09</v>
+        <v>84.32</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>45.3</v>
+        <v>-44.4</v>
       </c>
       <c r="B181">
-        <v>74.349999999999994</v>
+        <v>81.19</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>46.6</v>
+        <v>-45.6</v>
       </c>
       <c r="B182">
-        <v>66.7</v>
+        <v>77.58</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>47.8</v>
+        <v>-46.8</v>
       </c>
       <c r="B183">
-        <v>58.03</v>
+        <v>73.489999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>49</v>
+        <v>-48</v>
       </c>
       <c r="B184">
-        <v>49.79</v>
+        <v>68.540000000000006</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>50.2</v>
+        <v>-49.2</v>
       </c>
       <c r="B185">
-        <v>41.49</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>51.4</v>
+        <v>-50.4</v>
       </c>
       <c r="B186">
-        <v>33.21</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>52.6</v>
+        <v>-51.6</v>
       </c>
       <c r="B187">
-        <v>25.79</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>53.8</v>
+        <v>-52.8</v>
       </c>
       <c r="B188">
-        <v>19.059999999999999</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>55</v>
+        <v>-54</v>
       </c>
       <c r="B189">
-        <v>13.72</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>56.2</v>
+        <v>-55.2</v>
       </c>
       <c r="B190">
-        <v>9.59</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>57.4</v>
+        <v>-56.5</v>
       </c>
       <c r="B191">
-        <v>6.72</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>58.6</v>
+        <v>-57.6</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>59.8</v>
+        <v>-58.9</v>
       </c>
       <c r="B193">
-        <v>3.94</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>61</v>
+        <v>-60.1</v>
       </c>
       <c r="B194">
-        <v>3.32</v>
+        <v>19.510000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>62.2</v>
+        <v>-61.3</v>
       </c>
       <c r="B195">
-        <v>2.89</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>63.4</v>
+        <v>-62.5</v>
       </c>
       <c r="B196">
-        <v>2.62</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>64.599999999999994</v>
+        <v>-63.7</v>
       </c>
       <c r="B197">
-        <v>2.41</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>65.8</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="B198">
-        <v>2.23</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>67</v>
+        <v>-66.099999999999994</v>
       </c>
       <c r="B199">
-        <v>2.09</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>68.3</v>
+        <v>-67.3</v>
       </c>
       <c r="B200">
-        <v>1.95</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>69.5</v>
+        <v>-68.5</v>
       </c>
       <c r="B201">
-        <v>1.85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>70.7</v>
+        <v>-69.7</v>
       </c>
       <c r="B202">
-        <v>1.77</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>71.900000000000006</v>
+        <v>-70.900000000000006</v>
       </c>
       <c r="B203">
-        <v>1.67</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>73.099999999999994</v>
+        <v>-72.099999999999994</v>
       </c>
       <c r="B204">
-        <v>1.59</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>74.3</v>
+        <v>-73.3</v>
       </c>
       <c r="B205">
-        <v>1.53</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>75.5</v>
+        <v>-74.5</v>
       </c>
       <c r="B206">
-        <v>1.45</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>76.7</v>
+        <v>-75.7</v>
       </c>
       <c r="B207">
-        <v>1.37</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>77.900000000000006</v>
+        <v>-77</v>
       </c>
       <c r="B208">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>79.099999999999994</v>
+        <v>-78.099999999999994</v>
       </c>
       <c r="B209">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>80.3</v>
+        <v>-79.400000000000006</v>
       </c>
       <c r="B210">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>81.5</v>
+        <v>-80.599999999999994</v>
       </c>
       <c r="B211">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>82.7</v>
+        <v>-81.8</v>
       </c>
       <c r="B212">
-        <v>1.1299999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>83.9</v>
+        <v>-83</v>
       </c>
       <c r="B213">
-        <v>1.1200000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>85.1</v>
+        <v>-84.2</v>
       </c>
       <c r="B214">
-        <v>1.04</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>86.3</v>
+        <v>-85.4</v>
       </c>
       <c r="B215">
-        <v>1.03</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>87.5</v>
+        <v>-86.6</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>88.7</v>
+        <v>-87.8</v>
       </c>
       <c r="B217">
-        <v>0.99</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>89.9</v>
+        <v>-89</v>
       </c>
       <c r="B218">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>91.1</v>
+        <v>-90.2</v>
       </c>
       <c r="B219">
-        <v>0.95</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>92.3</v>
+        <v>-91.4</v>
       </c>
       <c r="B220">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>93.5</v>
+        <v>-92.6</v>
       </c>
       <c r="B221">
-        <v>0.92</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>94.7</v>
+        <v>-93.8</v>
       </c>
       <c r="B222">
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>96</v>
+        <v>-95</v>
       </c>
       <c r="B223">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>97.1</v>
+        <v>-96.3</v>
       </c>
       <c r="B224">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>98.4</v>
+        <v>-97.5</v>
       </c>
       <c r="B225">
-        <v>0.86</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>99.6</v>
+        <v>-98.7</v>
       </c>
       <c r="B226">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>100.7</v>
+        <v>-99.8</v>
       </c>
       <c r="B227">
-        <v>0.87</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>102</v>
+        <v>-101.1</v>
       </c>
       <c r="B228">
-        <v>0.85</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>103.1</v>
+        <v>-102.3</v>
       </c>
       <c r="B229">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>104.4</v>
+        <v>-103.5</v>
       </c>
       <c r="B230">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>105.6</v>
+        <v>-104.7</v>
       </c>
       <c r="B231">
-        <v>0.84</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>106.8</v>
+        <v>-105.9</v>
       </c>
       <c r="B232">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>108</v>
+        <v>-107.1</v>
       </c>
       <c r="B233">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>109.2</v>
+        <v>-108.3</v>
       </c>
       <c r="B234">
-        <v>0.81</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>110.4</v>
+        <v>-109.5</v>
       </c>
       <c r="B235">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>111.6</v>
+        <v>-110.7</v>
       </c>
       <c r="B236">
-        <v>0.81</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>112.8</v>
+        <v>-111.9</v>
       </c>
       <c r="B237">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>114</v>
+        <v>-113.1</v>
       </c>
       <c r="B238">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>115.2</v>
+        <v>-114.3</v>
       </c>
       <c r="B239">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>116.4</v>
+        <v>-115.5</v>
       </c>
       <c r="B240">
-        <v>0.77</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>117.6</v>
+        <v>-116.8</v>
       </c>
       <c r="B241">
-        <v>0.77</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>118.8</v>
+        <v>-117.9</v>
       </c>
       <c r="B242">
-        <v>0.78</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>120</v>
+        <v>-119.1</v>
       </c>
       <c r="B243">
-        <v>0.76</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>121.2</v>
+        <v>-120.4</v>
       </c>
       <c r="B244">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>122.4</v>
+        <v>-121.6</v>
       </c>
       <c r="B245">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>123.6</v>
+        <v>-122.8</v>
       </c>
       <c r="B246">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>124.8</v>
+        <v>-124</v>
       </c>
       <c r="B247">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>126</v>
+        <v>-125.2</v>
       </c>
       <c r="B248">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>127.2</v>
+        <v>-126.4</v>
       </c>
       <c r="B249">
-        <v>0.71</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>128.4</v>
+        <v>-127.6</v>
       </c>
       <c r="B250">
-        <v>0.71</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>129.6</v>
+        <v>-128.80000000000001</v>
       </c>
       <c r="B251">
-        <v>0.72</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>130.80000000000001</v>
+        <v>-130</v>
       </c>
       <c r="B252">
-        <v>0.7</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>132</v>
+        <v>-131.19999999999999</v>
       </c>
       <c r="B253">
-        <v>0.71</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>133.19999999999999</v>
+        <v>-132.4</v>
       </c>
       <c r="B254">
-        <v>0.69</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>134.5</v>
+        <v>-133.6</v>
       </c>
       <c r="B255">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>135.69999999999999</v>
+        <v>-134.80000000000001</v>
       </c>
       <c r="B256">
-        <v>0.7</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>136.9</v>
+        <v>-136</v>
       </c>
       <c r="B257">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>138.1</v>
+        <v>-137.19999999999999</v>
       </c>
       <c r="B258">
-        <v>0.73</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>139.30000000000001</v>
+        <v>-138.4</v>
       </c>
       <c r="B259">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>140.5</v>
+        <v>-139.69999999999999</v>
       </c>
       <c r="B260">
-        <v>0.72</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>141.69999999999999</v>
+        <v>-140.80000000000001</v>
       </c>
       <c r="B261">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>142.9</v>
+        <v>-142</v>
       </c>
       <c r="B262">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>144.1</v>
+        <v>-143.19999999999999</v>
       </c>
       <c r="B263">
-        <v>0.77</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>145.30000000000001</v>
+        <v>-144.4</v>
       </c>
       <c r="B264">
-        <v>0.76</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>146.5</v>
+        <v>-145.69999999999999</v>
       </c>
       <c r="B265">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>147.69999999999999</v>
+        <v>-146.80000000000001</v>
       </c>
       <c r="B266">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>148.9</v>
+        <v>-148</v>
       </c>
       <c r="B267">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>150.1</v>
+        <v>-149.30000000000001</v>
       </c>
       <c r="B268">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>151.30000000000001</v>
+        <v>-150.5</v>
       </c>
       <c r="B269">
-        <v>0.81</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>152.5</v>
+        <v>-151.69999999999999</v>
       </c>
       <c r="B270">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>153.69999999999999</v>
+        <v>-152.9</v>
       </c>
       <c r="B271">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>154.9</v>
+        <v>-154.1</v>
       </c>
       <c r="B272">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>156.1</v>
+        <v>-155.30000000000001</v>
       </c>
       <c r="B273">
-        <v>0.86</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>157.30000000000001</v>
+        <v>-156.5</v>
       </c>
       <c r="B274">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>158.5</v>
+        <v>-157.69999999999999</v>
       </c>
       <c r="B275">
-        <v>0.89</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>159.69999999999999</v>
+        <v>-158.9</v>
       </c>
       <c r="B276">
-        <v>0.88</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>161</v>
+        <v>-160.19999999999999</v>
       </c>
       <c r="B277">
-        <v>0.9</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>162.1</v>
+        <v>-161.4</v>
       </c>
       <c r="B278">
-        <v>0.88</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>163.4</v>
+        <v>-162.6</v>
       </c>
       <c r="B279">
-        <v>0.91</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>164.6</v>
+        <v>-163.80000000000001</v>
       </c>
       <c r="B280">
-        <v>0.91</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>165.8</v>
+        <v>-165</v>
       </c>
       <c r="B281">
-        <v>0.96</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>167</v>
+        <v>-166.2</v>
       </c>
       <c r="B282">
-        <v>0.96</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>168.2</v>
+        <v>-167.4</v>
       </c>
       <c r="B283">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>170</v>
+        <v>-168.6</v>
       </c>
       <c r="B284">
-        <v>0.95</v>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>-169.8</v>
+      </c>
+      <c r="B285">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>-171.5</v>
+      </c>
+      <c r="B286">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -24703,10 +24719,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4833D1-FBAA-CC47-847B-1444D129BE77}">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24721,2266 +24737,2282 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-170</v>
+        <v>171.5</v>
       </c>
       <c r="B2">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-169.1</v>
+        <v>170.5</v>
       </c>
       <c r="B3">
-        <v>0.76</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-167.6</v>
+        <v>168.8</v>
       </c>
       <c r="B4">
-        <v>0.78</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-166.6</v>
+        <v>167.6</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-165.4</v>
+        <v>166.6</v>
       </c>
       <c r="B6">
-        <v>0.78</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-164.2</v>
+        <v>165.5</v>
       </c>
       <c r="B7">
-        <v>0.79</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-162.9</v>
+        <v>164.2</v>
       </c>
       <c r="B8">
-        <v>0.78</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-161.80000000000001</v>
+        <v>163</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-160.5</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-159.30000000000001</v>
+        <v>160.6</v>
       </c>
       <c r="B11">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-158.1</v>
+        <v>159.4</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-156.9</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="B13">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-155.69999999999999</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>0.83</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-154.5</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B15">
-        <v>0.84</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-153.30000000000001</v>
+        <v>154.6</v>
       </c>
       <c r="B16">
-        <v>0.82</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-152.1</v>
+        <v>153.4</v>
       </c>
       <c r="B17">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-150.9</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="B18">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-149.69999999999999</v>
+        <v>151</v>
       </c>
       <c r="B19">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-148.5</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="B20">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-147.30000000000001</v>
+        <v>148.6</v>
       </c>
       <c r="B21">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-146.1</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="B22">
-        <v>0.81</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-144.9</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="B23">
-        <v>0.83</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-143.69999999999999</v>
+        <v>145</v>
       </c>
       <c r="B24">
-        <v>0.85</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-142.5</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="B25">
-        <v>0.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-141.30000000000001</v>
+        <v>142.5</v>
       </c>
       <c r="B26">
-        <v>0.84</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-140.1</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="B27">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-138.9</v>
+        <v>140.1</v>
       </c>
       <c r="B28">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-137.69999999999999</v>
+        <v>138.9</v>
       </c>
       <c r="B29">
-        <v>0.85</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-136.5</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="B30">
-        <v>0.85</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-135.30000000000001</v>
+        <v>136.5</v>
       </c>
       <c r="B31">
-        <v>0.88</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-134.1</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="B32">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-132.80000000000001</v>
+        <v>134.1</v>
       </c>
       <c r="B33">
-        <v>0.86</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-131.6</v>
+        <v>132.9</v>
       </c>
       <c r="B34">
-        <v>0.88</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-130.5</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="B35">
-        <v>0.87</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-129.19999999999999</v>
+        <v>130.5</v>
       </c>
       <c r="B36">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-128</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="B37">
-        <v>0.85</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-126.8</v>
+        <v>128.1</v>
       </c>
       <c r="B38">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-125.6</v>
+        <v>126.9</v>
       </c>
       <c r="B39">
-        <v>0.84</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-124.4</v>
+        <v>125.7</v>
       </c>
       <c r="B40">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-123.2</v>
+        <v>124.5</v>
       </c>
       <c r="B41">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-122</v>
+        <v>123.3</v>
       </c>
       <c r="B42">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-120.8</v>
+        <v>122.1</v>
       </c>
       <c r="B43">
-        <v>0.81</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-119.7</v>
+        <v>120.9</v>
       </c>
       <c r="B44">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-118.4</v>
+        <v>119.7</v>
       </c>
       <c r="B45">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-117.2</v>
+        <v>118.5</v>
       </c>
       <c r="B46">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-116</v>
+        <v>117.3</v>
       </c>
       <c r="B47">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-114.8</v>
+        <v>116.1</v>
       </c>
       <c r="B48">
-        <v>0.81</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-113.6</v>
+        <v>114.8</v>
       </c>
       <c r="B49">
-        <v>0.81</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>-112.4</v>
+        <v>113.7</v>
       </c>
       <c r="B50">
-        <v>0.81</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-111.2</v>
+        <v>112.4</v>
       </c>
       <c r="B51">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-110</v>
+        <v>111.2</v>
       </c>
       <c r="B52">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-108.8</v>
+        <v>110</v>
       </c>
       <c r="B53">
-        <v>0.83</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-107.6</v>
+        <v>108.8</v>
       </c>
       <c r="B54">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-106.4</v>
+        <v>107.6</v>
       </c>
       <c r="B55">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-105.2</v>
+        <v>106.4</v>
       </c>
       <c r="B56">
-        <v>0.85</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-104</v>
+        <v>105.2</v>
       </c>
       <c r="B57">
-        <v>0.86</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-102.8</v>
+        <v>104</v>
       </c>
       <c r="B58">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-101.6</v>
+        <v>102.8</v>
       </c>
       <c r="B59">
-        <v>0.9</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-100.3</v>
+        <v>101.6</v>
       </c>
       <c r="B60">
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-99.1</v>
+        <v>100.4</v>
       </c>
       <c r="B61">
-        <v>0.92</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-98</v>
+        <v>99.2</v>
       </c>
       <c r="B62">
-        <v>0.94</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-96.8</v>
+        <v>98</v>
       </c>
       <c r="B63">
-        <v>0.94</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-95.6</v>
+        <v>96.8</v>
       </c>
       <c r="B64">
-        <v>0.96</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-94.3</v>
+        <v>95.6</v>
       </c>
       <c r="B65">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-93.2</v>
+        <v>94.4</v>
       </c>
       <c r="B66">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-91.9</v>
+        <v>93.2</v>
       </c>
       <c r="B67">
-        <v>1.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-90.7</v>
+        <v>92</v>
       </c>
       <c r="B68">
-        <v>1.01</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-89.6</v>
+        <v>90.7</v>
       </c>
       <c r="B69">
-        <v>1.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-88.3</v>
+        <v>89.5</v>
       </c>
       <c r="B70">
-        <v>1.0900000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-87.1</v>
+        <v>88.3</v>
       </c>
       <c r="B71">
-        <v>1.0900000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-85.9</v>
+        <v>87.2</v>
       </c>
       <c r="B72">
-        <v>1.1100000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-84.7</v>
+        <v>85.9</v>
       </c>
       <c r="B73">
-        <v>1.18</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-83.5</v>
+        <v>84.7</v>
       </c>
       <c r="B74">
-        <v>1.2</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-82.3</v>
+        <v>83.6</v>
       </c>
       <c r="B75">
-        <v>1.25</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-81.099999999999994</v>
+        <v>82.3</v>
       </c>
       <c r="B76">
-        <v>1.3</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-79.900000000000006</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="B77">
-        <v>1.34</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-78.7</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="B78">
-        <v>1.42</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-77.5</v>
+        <v>78.7</v>
       </c>
       <c r="B79">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-76.3</v>
+        <v>77.5</v>
       </c>
       <c r="B80">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-75.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="B81">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-73.900000000000006</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="B82">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>-72.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="B83">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>-71.5</v>
+        <v>72.7</v>
       </c>
       <c r="B84">
-        <v>1.91</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>-70.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="B85">
-        <v>2.02</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>-69.099999999999994</v>
+        <v>70.2</v>
       </c>
       <c r="B86">
-        <v>2.13</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>-67.900000000000006</v>
+        <v>69</v>
       </c>
       <c r="B87">
-        <v>2.2999999999999998</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>-66.7</v>
+        <v>67.8</v>
       </c>
       <c r="B88">
-        <v>2.48</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>-65.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="B89">
-        <v>2.77</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>-64.3</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="B90">
-        <v>3.2</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>-63</v>
+        <v>64.2</v>
       </c>
       <c r="B91">
-        <v>3.78</v>
+        <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>-61.9</v>
+        <v>63</v>
       </c>
       <c r="B92">
-        <v>4.6900000000000004</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>-60.6</v>
+        <v>61.8</v>
       </c>
       <c r="B93">
-        <v>6.35</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>-59.5</v>
+        <v>60.6</v>
       </c>
       <c r="B94">
-        <v>8.92</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>-58.2</v>
+        <v>59.3</v>
       </c>
       <c r="B95">
-        <v>12.94</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>-57</v>
+        <v>58.2</v>
       </c>
       <c r="B96">
-        <v>18.399999999999999</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>-55.8</v>
+        <v>56.9</v>
       </c>
       <c r="B97">
-        <v>25.15</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>-54.6</v>
+        <v>55.7</v>
       </c>
       <c r="B98">
-        <v>32.56</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>-53.4</v>
+        <v>54.5</v>
       </c>
       <c r="B99">
-        <v>40.67</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>-52.2</v>
+        <v>53.4</v>
       </c>
       <c r="B100">
-        <v>49.48</v>
+        <v>42.06</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>-51</v>
+        <v>52.1</v>
       </c>
       <c r="B101">
-        <v>58.03</v>
+        <v>47.66</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>-49.8</v>
+        <v>50.9</v>
       </c>
       <c r="B102">
-        <v>66.23</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>-48.6</v>
+        <v>49.7</v>
       </c>
       <c r="B103">
-        <v>74.25</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>-47.4</v>
+        <v>48.5</v>
       </c>
       <c r="B104">
-        <v>81.25</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>-46.2</v>
+        <v>47.3</v>
       </c>
       <c r="B105">
-        <v>87.29</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>-45</v>
+        <v>46.1</v>
       </c>
       <c r="B106">
-        <v>91.96</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>-43.8</v>
+        <v>44.9</v>
       </c>
       <c r="B107">
-        <v>95.48</v>
+        <v>77.739999999999995</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>-42.6</v>
+        <v>43.7</v>
       </c>
       <c r="B108">
-        <v>97.48</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>-41.4</v>
+        <v>42.5</v>
       </c>
       <c r="B109">
-        <v>99.06</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>-40.200000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="B110">
-        <v>99.74</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>-39</v>
+        <v>40.1</v>
       </c>
       <c r="B111">
-        <v>99.83</v>
+        <v>89.83</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>-37.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="B112">
-        <v>100.37</v>
+        <v>91.46</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>-36.6</v>
+        <v>37.6</v>
       </c>
       <c r="B113">
-        <v>100.54</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>-35.4</v>
+        <v>36.4</v>
       </c>
       <c r="B114">
-        <v>100.68</v>
+        <v>94.46</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>-34.200000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="B115">
-        <v>100.65</v>
+        <v>95.39</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>-33</v>
+        <v>34</v>
       </c>
       <c r="B116">
-        <v>100.8</v>
+        <v>96.06</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>-31.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="B117">
-        <v>100.66</v>
+        <v>96.79</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>-30.5</v>
+        <v>31.6</v>
       </c>
       <c r="B118">
-        <v>100.65</v>
+        <v>97.37</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>-29.3</v>
+        <v>30.4</v>
       </c>
       <c r="B119">
-        <v>100.71</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>-28.2</v>
+        <v>29.2</v>
       </c>
       <c r="B120">
-        <v>100.74</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>-27</v>
+        <v>28</v>
       </c>
       <c r="B121">
-        <v>100.8</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>-25.7</v>
+        <v>26.8</v>
       </c>
       <c r="B122">
-        <v>100.4</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>-24.5</v>
+        <v>25.6</v>
       </c>
       <c r="B123">
-        <v>100.55</v>
+        <v>98.96</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>-23.3</v>
+        <v>24.4</v>
       </c>
       <c r="B124">
-        <v>100.59</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>-22.1</v>
+        <v>23.2</v>
       </c>
       <c r="B125">
-        <v>100.77</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>-20.9</v>
+        <v>22</v>
       </c>
       <c r="B126">
-        <v>100.63</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>-19.7</v>
+        <v>20.8</v>
       </c>
       <c r="B127">
-        <v>100.44</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>-18.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B128">
-        <v>100.37</v>
+        <v>99.69</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>-17.3</v>
+        <v>18.3</v>
       </c>
       <c r="B129">
-        <v>100.45</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>-16.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="B130">
-        <v>100.37</v>
+        <v>99.81</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>-14.9</v>
+        <v>15.9</v>
       </c>
       <c r="B131">
-        <v>100.5</v>
+        <v>99.69</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>-13.7</v>
+        <v>14.8</v>
       </c>
       <c r="B132">
-        <v>100.3</v>
+        <v>99.73</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>-12.5</v>
+        <v>13.6</v>
       </c>
       <c r="B133">
-        <v>100.41</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>-11.3</v>
+        <v>12.3</v>
       </c>
       <c r="B134">
-        <v>100.43</v>
+        <v>99.96</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>-10.1</v>
+        <v>11.1</v>
       </c>
       <c r="B135">
-        <v>100.23</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>-8.9</v>
+        <v>9.9</v>
       </c>
       <c r="B136">
-        <v>100.29</v>
+        <v>99.78</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>-7.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B137">
-        <v>100.16</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>-6.5</v>
+        <v>7.5</v>
       </c>
       <c r="B138">
-        <v>100.27</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>-5.3</v>
+        <v>6.3</v>
       </c>
       <c r="B139">
-        <v>100.3</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>-4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B140">
-        <v>100.17</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>-2.9</v>
+        <v>3.9</v>
       </c>
       <c r="B141">
-        <v>100.01</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>-1.6</v>
+        <v>2.7</v>
       </c>
       <c r="B142">
-        <v>100.18</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>-0.4</v>
+        <v>1.5</v>
       </c>
       <c r="B143">
-        <v>100</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="B144">
-        <v>100.01</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>2</v>
+        <v>-0.9</v>
       </c>
       <c r="B145">
-        <v>100.08</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>3.2</v>
+        <v>-2.1</v>
       </c>
       <c r="B146">
-        <v>99.64</v>
+        <v>100.18</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>4.4000000000000004</v>
+        <v>-3.3</v>
       </c>
       <c r="B147">
-        <v>99.58</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>5.6</v>
+        <v>-4.5</v>
       </c>
       <c r="B148">
-        <v>99.82</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>6.8</v>
+        <v>-5.7</v>
       </c>
       <c r="B149">
-        <v>99.85</v>
+        <v>100.36</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>7.9</v>
+        <v>-6.9</v>
       </c>
       <c r="B150">
-        <v>99.85</v>
+        <v>100.17</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>9.1999999999999993</v>
+        <v>-8.1</v>
       </c>
       <c r="B151">
-        <v>99.67</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>10.4</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="B152">
-        <v>99.59</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>11.6</v>
+        <v>-10.5</v>
       </c>
       <c r="B153">
-        <v>99.91</v>
+        <v>100.47</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>12.8</v>
+        <v>-11.8</v>
       </c>
       <c r="B154">
-        <v>99.79</v>
+        <v>100.33</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>14</v>
+        <v>-12.9</v>
       </c>
       <c r="B155">
-        <v>99.77</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>15.2</v>
+        <v>-14.1</v>
       </c>
       <c r="B156">
-        <v>99.75</v>
+        <v>100.36</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>16.399999999999999</v>
+        <v>-15.4</v>
       </c>
       <c r="B157">
-        <v>99.6</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>17.600000000000001</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="B158">
-        <v>99.39</v>
+        <v>100.42</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>18.8</v>
+        <v>-17.8</v>
       </c>
       <c r="B159">
-        <v>99.66</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>20</v>
+        <v>-19</v>
       </c>
       <c r="B160">
-        <v>99.74</v>
+        <v>100.53</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>21.2</v>
+        <v>-20.2</v>
       </c>
       <c r="B161">
-        <v>99.64</v>
+        <v>100.44</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>22.4</v>
+        <v>-21.4</v>
       </c>
       <c r="B162">
-        <v>99.42</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>23.6</v>
+        <v>-22.6</v>
       </c>
       <c r="B163">
-        <v>99.4</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>24.8</v>
+        <v>-23.8</v>
       </c>
       <c r="B164">
-        <v>99.6</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>26</v>
+        <v>-25</v>
       </c>
       <c r="B165">
-        <v>99.46</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>27.2</v>
+        <v>-26.2</v>
       </c>
       <c r="B166">
-        <v>99.52</v>
+        <v>99.76</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>28.4</v>
+        <v>-27.4</v>
       </c>
       <c r="B167">
-        <v>99.3</v>
+        <v>99.51</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>29.6</v>
+        <v>-28.6</v>
       </c>
       <c r="B168">
-        <v>99.44</v>
+        <v>99.39</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>30.8</v>
+        <v>-29.8</v>
       </c>
       <c r="B169">
-        <v>99.4</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>32</v>
+        <v>-31</v>
       </c>
       <c r="B170">
-        <v>99.28</v>
+        <v>98.62</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>33.200000000000003</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="B171">
-        <v>99.09</v>
+        <v>98.31</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>34.5</v>
+        <v>-33.5</v>
       </c>
       <c r="B172">
-        <v>98.74</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>35.6</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="B173">
-        <v>98.86</v>
+        <v>97.01</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>36.9</v>
+        <v>-35.9</v>
       </c>
       <c r="B174">
-        <v>98.42</v>
+        <v>96.04</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>38.1</v>
+        <v>-37.1</v>
       </c>
       <c r="B175">
-        <v>97.84</v>
+        <v>94.99</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>39.200000000000003</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="B176">
-        <v>96.79</v>
+        <v>93.44</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>40.5</v>
+        <v>-39.5</v>
       </c>
       <c r="B177">
-        <v>94.99</v>
+        <v>92.02</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>41.7</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="B178">
-        <v>92.42</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>42.8</v>
+        <v>-41.9</v>
       </c>
       <c r="B179">
-        <v>88.36</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>44.1</v>
+        <v>-43.1</v>
       </c>
       <c r="B180">
-        <v>82.98</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>45.3</v>
+        <v>-44.3</v>
       </c>
       <c r="B181">
-        <v>76.28</v>
+        <v>81.11</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>46.5</v>
+        <v>-45.5</v>
       </c>
       <c r="B182">
-        <v>68.959999999999994</v>
+        <v>77.510000000000005</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>47.7</v>
+        <v>-46.7</v>
       </c>
       <c r="B183">
-        <v>60.48</v>
+        <v>73.209999999999994</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>48.9</v>
+        <v>-47.9</v>
       </c>
       <c r="B184">
-        <v>52.38</v>
+        <v>68.430000000000007</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>50.1</v>
+        <v>-49.1</v>
       </c>
       <c r="B185">
-        <v>44.14</v>
+        <v>63.01</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>51.3</v>
+        <v>-50.3</v>
       </c>
       <c r="B186">
-        <v>35.94</v>
+        <v>57.91</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>52.5</v>
+        <v>-51.5</v>
       </c>
       <c r="B187">
-        <v>27.84</v>
+        <v>52.36</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>53.7</v>
+        <v>-52.7</v>
       </c>
       <c r="B188">
-        <v>20.92</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>54.9</v>
+        <v>-53.9</v>
       </c>
       <c r="B189">
-        <v>15.09</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>56.1</v>
+        <v>-55.1</v>
       </c>
       <c r="B190">
-        <v>10.57</v>
+        <v>35.69</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>57.3</v>
+        <v>-56.3</v>
       </c>
       <c r="B191">
-        <v>7.4</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>58.5</v>
+        <v>-57.5</v>
       </c>
       <c r="B192">
-        <v>5.48</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>59.7</v>
+        <v>-58.7</v>
       </c>
       <c r="B193">
-        <v>4.3499999999999996</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>60.9</v>
+        <v>-60</v>
       </c>
       <c r="B194">
-        <v>3.61</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>62.1</v>
+        <v>-61.2</v>
       </c>
       <c r="B195">
-        <v>3.15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>63.3</v>
+        <v>-62.4</v>
       </c>
       <c r="B196">
-        <v>2.82</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>64.5</v>
+        <v>-63.6</v>
       </c>
       <c r="B197">
-        <v>2.59</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>65.8</v>
+        <v>-64.8</v>
       </c>
       <c r="B198">
-        <v>2.4</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>66.900000000000006</v>
+        <v>-66</v>
       </c>
       <c r="B199">
-        <v>2.2799999999999998</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>68.2</v>
+        <v>-67.2</v>
       </c>
       <c r="B200">
-        <v>2.13</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>69.3</v>
+        <v>-68.400000000000006</v>
       </c>
       <c r="B201">
-        <v>2.0099999999999998</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>70.599999999999994</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="B202">
-        <v>1.91</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>71.7</v>
+        <v>-70.8</v>
       </c>
       <c r="B203">
-        <v>1.84</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>73</v>
+        <v>-72</v>
       </c>
       <c r="B204">
-        <v>1.77</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>74.2</v>
+        <v>-73.3</v>
       </c>
       <c r="B205">
-        <v>1.68</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>75.400000000000006</v>
+        <v>-74.400000000000006</v>
       </c>
       <c r="B206">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>76.599999999999994</v>
+        <v>-75.7</v>
       </c>
       <c r="B207">
-        <v>1.51</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>77.8</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="B208">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>79</v>
+        <v>-78.099999999999994</v>
       </c>
       <c r="B209">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>80.2</v>
+        <v>-79.3</v>
       </c>
       <c r="B210">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>81.400000000000006</v>
+        <v>-80.400000000000006</v>
       </c>
       <c r="B211">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>82.6</v>
+        <v>-81.7</v>
       </c>
       <c r="B212">
-        <v>1.26</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>83.8</v>
+        <v>-82.9</v>
       </c>
       <c r="B213">
-        <v>1.21</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>85</v>
+        <v>-84.1</v>
       </c>
       <c r="B214">
-        <v>1.1599999999999999</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>86.2</v>
+        <v>-85.3</v>
       </c>
       <c r="B215">
-        <v>1.1200000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>87.4</v>
+        <v>-86.5</v>
       </c>
       <c r="B216">
-        <v>1.0900000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>88.6</v>
+        <v>-87.7</v>
       </c>
       <c r="B217">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>89.8</v>
+        <v>-88.9</v>
       </c>
       <c r="B218">
-        <v>1.03</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>91</v>
+        <v>-90.1</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>92.2</v>
+        <v>-91.3</v>
       </c>
       <c r="B220">
-        <v>0.98</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>93.4</v>
+        <v>-92.5</v>
       </c>
       <c r="B221">
-        <v>0.96</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>94.7</v>
+        <v>-93.7</v>
       </c>
       <c r="B222">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>95.8</v>
+        <v>-94.9</v>
       </c>
       <c r="B223">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>97</v>
+        <v>-96.2</v>
       </c>
       <c r="B224">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>98.3</v>
+        <v>-97.4</v>
       </c>
       <c r="B225">
-        <v>0.89</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>99.4</v>
+        <v>-98.6</v>
       </c>
       <c r="B226">
-        <v>0.87</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>100.7</v>
+        <v>-99.8</v>
       </c>
       <c r="B227">
-        <v>0.87</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>101.9</v>
+        <v>-101</v>
       </c>
       <c r="B228">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>103</v>
+        <v>-102.2</v>
       </c>
       <c r="B229">
-        <v>0.86</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>104.3</v>
+        <v>-103.4</v>
       </c>
       <c r="B230">
-        <v>0.84</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>105.4</v>
+        <v>-104.6</v>
       </c>
       <c r="B231">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>106.7</v>
+        <v>-105.8</v>
       </c>
       <c r="B232">
-        <v>0.83</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>107.8</v>
+        <v>-107</v>
       </c>
       <c r="B233">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>109.1</v>
+        <v>-108.2</v>
       </c>
       <c r="B234">
-        <v>0.81</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>110.2</v>
+        <v>-109.4</v>
       </c>
       <c r="B235">
-        <v>0.83</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>111.5</v>
+        <v>-110.6</v>
       </c>
       <c r="B236">
-        <v>0.82</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>112.7</v>
+        <v>-111.8</v>
       </c>
       <c r="B237">
-        <v>0.83</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>113.9</v>
+        <v>-113</v>
       </c>
       <c r="B238">
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>115.1</v>
+        <v>-114.2</v>
       </c>
       <c r="B239">
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>116.3</v>
+        <v>-115.4</v>
       </c>
       <c r="B240">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>117.5</v>
+        <v>-116.6</v>
       </c>
       <c r="B241">
-        <v>0.82</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>118.7</v>
+        <v>-117.9</v>
       </c>
       <c r="B242">
-        <v>0.81</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>119.9</v>
+        <v>-119</v>
       </c>
       <c r="B243">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>121.1</v>
+        <v>-120.2</v>
       </c>
       <c r="B244">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>122.3</v>
+        <v>-121.5</v>
       </c>
       <c r="B245">
-        <v>0.84</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>123.5</v>
+        <v>-122.7</v>
       </c>
       <c r="B246">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>124.7</v>
+        <v>-123.9</v>
       </c>
       <c r="B247">
-        <v>0.81</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>125.9</v>
+        <v>-125.1</v>
       </c>
       <c r="B248">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>127.1</v>
+        <v>-126.3</v>
       </c>
       <c r="B249">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>128.4</v>
+        <v>-127.5</v>
       </c>
       <c r="B250">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>129.5</v>
+        <v>-128.69999999999999</v>
       </c>
       <c r="B251">
-        <v>0.84</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>130.69999999999999</v>
+        <v>-129.9</v>
       </c>
       <c r="B252">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>131.9</v>
+        <v>-131.1</v>
       </c>
       <c r="B253">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>133.19999999999999</v>
+        <v>-132.30000000000001</v>
       </c>
       <c r="B254">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>134.4</v>
+        <v>-133.5</v>
       </c>
       <c r="B255">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>135.5</v>
+        <v>-134.69999999999999</v>
       </c>
       <c r="B256">
-        <v>0.83</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>136.80000000000001</v>
+        <v>-136</v>
       </c>
       <c r="B257">
-        <v>0.81</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>137.9</v>
+        <v>-137.1</v>
       </c>
       <c r="B258">
-        <v>0.82</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>139.19999999999999</v>
+        <v>-138.4</v>
       </c>
       <c r="B259">
-        <v>0.81</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>140.4</v>
+        <v>-139.5</v>
       </c>
       <c r="B260">
-        <v>0.79</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>141.5</v>
+        <v>-140.69999999999999</v>
       </c>
       <c r="B261">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>142.80000000000001</v>
+        <v>-141.9</v>
       </c>
       <c r="B262">
-        <v>0.82</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>143.9</v>
+        <v>-143.19999999999999</v>
       </c>
       <c r="B263">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>145.19999999999999</v>
+        <v>-144.30000000000001</v>
       </c>
       <c r="B264">
-        <v>0.79</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>146.4</v>
+        <v>-145.6</v>
       </c>
       <c r="B265">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>147.6</v>
+        <v>-146.80000000000001</v>
       </c>
       <c r="B266">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>148.80000000000001</v>
+        <v>-147.9</v>
       </c>
       <c r="B267">
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>149.9</v>
+        <v>-149.19999999999999</v>
       </c>
       <c r="B268">
-        <v>0.81</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>151.19999999999999</v>
+        <v>-150.4</v>
       </c>
       <c r="B269">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>152.4</v>
+        <v>-151.6</v>
       </c>
       <c r="B270">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>153.6</v>
+        <v>-152.80000000000001</v>
       </c>
       <c r="B271">
-        <v>0.8</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>154.80000000000001</v>
+        <v>-154</v>
       </c>
       <c r="B272">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>156</v>
+        <v>-155.19999999999999</v>
       </c>
       <c r="B273">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>157.19999999999999</v>
+        <v>-156.4</v>
       </c>
       <c r="B274">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>158.4</v>
+        <v>-157.6</v>
       </c>
       <c r="B275">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>159.6</v>
+        <v>-158.80000000000001</v>
       </c>
       <c r="B276">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>160.80000000000001</v>
+        <v>-160</v>
       </c>
       <c r="B277">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>162</v>
+        <v>-161.19999999999999</v>
       </c>
       <c r="B278">
-        <v>0.74</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>163.19999999999999</v>
+        <v>-162.4</v>
       </c>
       <c r="B279">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>164.4</v>
+        <v>-163.6</v>
       </c>
       <c r="B280">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>165.6</v>
+        <v>-164.9</v>
       </c>
       <c r="B281">
-        <v>0.74</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>166.8</v>
+        <v>-166.1</v>
       </c>
       <c r="B282">
-        <v>0.72</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>168</v>
+        <v>-167.3</v>
       </c>
       <c r="B283">
-        <v>0.73</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>170</v>
+        <v>-168.4</v>
       </c>
       <c r="B284">
-        <v>0.71</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>-169.7</v>
+      </c>
+      <c r="B285">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>-171.5</v>
+      </c>
+      <c r="B286">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
